--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankushgarg/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915924BF-D14E-B248-976B-06E9042A2083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B350E12E-C4D1-F040-9FB3-2C052EE58C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="830">
   <si>
     <t>document</t>
   </si>
@@ -10849,6 +10849,15 @@
   </si>
   <si>
     <t>Summary refers to the internals of the fields</t>
+  </si>
+  <si>
+    <t>Was asked to put N/A for symptoms</t>
+  </si>
+  <si>
+    <t>PII and main reason. Summary also doesn't capture that the person is looking for a referral for their symptoms. Main reason is to get an appointment.</t>
+  </si>
+  <si>
+    <t>Symptoms aren't N/A</t>
   </si>
 </sst>
 </file>
@@ -11224,8 +11233,8 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -12298,6 +12307,18 @@
       <c r="H29" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
@@ -12324,6 +12345,15 @@
       <c r="H30" s="2" t="s">
         <v>240</v>
       </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -12350,6 +12380,15 @@
       <c r="H31" s="2" t="s">
         <v>248</v>
       </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -12376,8 +12415,20 @@
       <c r="H32" s="2" t="s">
         <v>256</v>
       </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>257</v>
       </c>
@@ -12402,8 +12453,17 @@
       <c r="H33" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>265</v>
       </c>
@@ -12428,8 +12488,17 @@
       <c r="H34" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>273</v>
       </c>
@@ -12454,8 +12523,20 @@
       <c r="H35" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>820</v>
+      </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>281</v>
       </c>
@@ -12480,8 +12561,17 @@
       <c r="H36" s="2" t="s">
         <v>288</v>
       </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>289</v>
       </c>
@@ -12506,8 +12596,20 @@
       <c r="H37" s="2" t="s">
         <v>296</v>
       </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>823</v>
+      </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>297</v>
       </c>
@@ -12532,8 +12634,20 @@
       <c r="H38" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>828</v>
+      </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>305</v>
       </c>
@@ -12558,8 +12672,17 @@
       <c r="H39" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>313</v>
       </c>
@@ -12584,8 +12707,20 @@
       <c r="H40" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>321</v>
       </c>
@@ -12610,8 +12745,17 @@
       <c r="H41" s="2" t="s">
         <v>328</v>
       </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>329</v>
       </c>
@@ -12636,8 +12780,20 @@
       <c r="H42" s="2" t="s">
         <v>336</v>
       </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>829</v>
+      </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>337</v>
       </c>
@@ -12662,8 +12818,17 @@
       <c r="H43" s="2" t="s">
         <v>344</v>
       </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>345</v>
       </c>
@@ -12688,8 +12853,17 @@
       <c r="H44" s="2" t="s">
         <v>352</v>
       </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>353</v>
       </c>
@@ -12715,7 +12889,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>361</v>
       </c>
@@ -12741,7 +12915,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>369</v>
       </c>
@@ -12767,7 +12941,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>377</v>
       </c>

--- a/responses.xlsx
+++ b/responses.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankushgarg/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B350E12E-C4D1-F040-9FB3-2C052EE58C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341A7F23-5748-2A4B-8334-02075D320319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="833">
   <si>
     <t>document</t>
   </si>
@@ -10858,6 +10858,15 @@
   </si>
   <si>
     <t>Symptoms aren't N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PII, "some symptoms", summary off too </t>
+  </si>
+  <si>
+    <t>Main reason for the call leaked through to the summary</t>
+  </si>
+  <si>
+    <t>Summary written twice</t>
   </si>
 </sst>
 </file>
@@ -11233,8 +11242,8 @@
   <dimension ref="A1:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -12888,6 +12897,15 @@
       <c r="H45" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
@@ -12914,6 +12932,15 @@
       <c r="H46" s="2" t="s">
         <v>368</v>
       </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -12940,6 +12967,18 @@
       <c r="H47" s="2" t="s">
         <v>376</v>
       </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
@@ -12966,8 +13005,17 @@
       <c r="H48" s="2" t="s">
         <v>384</v>
       </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>385</v>
       </c>
@@ -12992,8 +13040,17 @@
       <c r="H49" s="2" t="s">
         <v>392</v>
       </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>393</v>
       </c>
@@ -13018,8 +13075,20 @@
       <c r="H50" s="2" t="s">
         <v>400</v>
       </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>829</v>
+      </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>401</v>
       </c>
@@ -13044,8 +13113,20 @@
       <c r="H51" s="2" t="s">
         <v>408</v>
       </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>821</v>
+      </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>409</v>
       </c>
@@ -13070,8 +13151,17 @@
       <c r="H52" s="2" t="s">
         <v>416</v>
       </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>417</v>
       </c>
@@ -13096,8 +13186,20 @@
       <c r="H53" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="I53" s="2">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>425</v>
       </c>
@@ -13122,8 +13224,17 @@
       <c r="H54" s="2" t="s">
         <v>432</v>
       </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>433</v>
       </c>
@@ -13148,8 +13259,20 @@
       <c r="H55" s="2" t="s">
         <v>440</v>
       </c>
+      <c r="I55" s="2">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>821</v>
+      </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>441</v>
       </c>
@@ -13174,8 +13297,17 @@
       <c r="H56" s="2" t="s">
         <v>448</v>
       </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1</v>
+      </c>
+      <c r="K56" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>449</v>
       </c>
@@ -13200,8 +13332,20 @@
       <c r="H57" s="2" t="s">
         <v>456</v>
       </c>
+      <c r="I57" s="2">
+        <v>1</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>831</v>
+      </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>457</v>
       </c>
@@ -13226,8 +13370,20 @@
       <c r="H58" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>1</v>
+      </c>
+      <c r="K58" s="2">
+        <v>1</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>465</v>
       </c>
@@ -13252,8 +13408,17 @@
       <c r="H59" s="2" t="s">
         <v>472</v>
       </c>
+      <c r="I59" s="2">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>473</v>
       </c>
@@ -13278,8 +13443,17 @@
       <c r="H60" s="2" t="s">
         <v>480</v>
       </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>481</v>
       </c>
@@ -13304,8 +13478,20 @@
       <c r="H61" s="2" t="s">
         <v>488</v>
       </c>
+      <c r="I61" s="2">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+      <c r="K61" s="2">
+        <v>1</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>489</v>
       </c>
@@ -13330,8 +13516,20 @@
       <c r="H62" s="2" t="s">
         <v>496</v>
       </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>820</v>
+      </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>497</v>
       </c>
@@ -13356,8 +13554,20 @@
       <c r="H63" s="2" t="s">
         <v>504</v>
       </c>
+      <c r="I63" s="2">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+      <c r="K63" s="2">
+        <v>1</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>505</v>
       </c>
@@ -13382,8 +13592,20 @@
       <c r="H64" s="2" t="s">
         <v>512</v>
       </c>
+      <c r="I64" s="2">
+        <v>0</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>513</v>
       </c>
@@ -13408,8 +13630,20 @@
       <c r="H65" s="2" t="s">
         <v>520</v>
       </c>
+      <c r="I65" s="2">
+        <v>0</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+      <c r="K65" s="2">
+        <v>1</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>521</v>
       </c>
@@ -13434,8 +13668,20 @@
       <c r="H66" s="2" t="s">
         <v>528</v>
       </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>832</v>
+      </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>529</v>
       </c>
@@ -13460,8 +13706,20 @@
       <c r="H67" s="2" t="s">
         <v>536</v>
       </c>
+      <c r="I67" s="2">
+        <v>0</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>537</v>
       </c>
@@ -13486,8 +13744,17 @@
       <c r="H68" s="2" t="s">
         <v>544</v>
       </c>
+      <c r="I68" s="2">
+        <v>1</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+      <c r="K68" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>545</v>
       </c>
@@ -13512,8 +13779,20 @@
       <c r="H69" s="2" t="s">
         <v>552</v>
       </c>
+      <c r="I69" s="2">
+        <v>0</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+      <c r="K69" s="2">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>819</v>
+      </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>553</v>
       </c>
@@ -13538,8 +13817,20 @@
       <c r="H70" s="2" t="s">
         <v>560</v>
       </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>831</v>
+      </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>561</v>
       </c>
@@ -13565,7 +13856,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>569</v>
       </c>
@@ -13591,7 +13882,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>577</v>
       </c>
@@ -13617,7 +13908,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>585</v>
       </c>
@@ -13643,7 +13934,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>593</v>
       </c>
@@ -13669,7 +13960,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>601</v>
       </c>
@@ -13695,7 +13986,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>609</v>
       </c>
@@ -13721,7 +14012,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>617</v>
       </c>
@@ -13747,7 +14038,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>625</v>
       </c>
@@ -13773,7 +14064,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>633</v>
       </c>
